--- a/trained_models_old_clean/MLP/energy_y2/results_table.xlsx
+++ b/trained_models_old_clean/MLP/energy_y2/results_table.xlsx
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9545104673724751, 'beta_2': 0.5977176533953225, 'epsilon': 0.11879802520386755, 'learning_rate': 'invscaling', 'momentum': 0.9087334407983848, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.14543560340536665}</t>
+          <t>{'beta_1': 0.3482845967383244, 'beta_2': 0.10774183157942659, 'epsilon': 0.3882006204107153, 'learning_rate': 'constant', 'momentum': 0.08757177555718132, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.704412213094957}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.8528138528138528</v>
+        <v>0.8917748917748918</v>
       </c>
     </row>
     <row r="3">
@@ -540,7 +540,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.18678021333564818, 'beta_2': 0.6738733596115727, 'epsilon': 0.2767890965633854, 'learning_rate': 'constant', 'momentum': 0.04866731114905576, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8906310472988932}</t>
+          <t>{'beta_1': 0.052354629733086175, 'beta_2': 0.9092212557463333, 'epsilon': 0.5338975961371942, 'learning_rate': 'constant', 'momentum': 0.6800837840490205, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.25748830652559607}</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -576,11 +576,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.024054047646761563, 'beta_2': 0.9416606918501553, 'epsilon': 0.7252807249027527, 'learning_rate': 'invscaling', 'momentum': 0.3937882433723108, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8163455351451152}</t>
+          <t>{'beta_1': 0.5114086881724245, 'beta_2': 0.5934257085111252, 'epsilon': 0.2008554721175046, 'learning_rate': 'invscaling', 'momentum': 0.9097412679862698, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.3554509622689557}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8614718614718615</v>
       </c>
     </row>
     <row r="5">
@@ -612,11 +612,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9542478120828, 'beta_2': 0.5530798961168548, 'epsilon': 0.9357463476708033, 'learning_rate': 'invscaling', 'momentum': 0.9236518593869899, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.19815949993946502}</t>
+          <t>{'beta_1': 0.45370823451064424, 'beta_2': 0.3263741808864918, 'epsilon': 0.2325113851497778, 'learning_rate': 'constant', 'momentum': 0.8395129668196633, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5130748631715455}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9307359307359307</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="6">
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5652792503232922, 'beta_2': 0.41981330293618097, 'epsilon': 0.7277454915754739, 'learning_rate': 'constant', 'momentum': 0.21878330983125793, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7178526672195303}</t>
+          <t>{'beta_1': 0.4441807347423176, 'beta_2': 0.9291962358814533, 'epsilon': 0.18108639448569455, 'learning_rate': 'constant', 'momentum': 0.5078736664026768, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5151529471065713}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8528138528138528</v>
       </c>
     </row>
     <row r="7">
@@ -684,11 +684,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7421553937886406, 'beta_2': 0.1958047535264583, 'epsilon': 0.28604321732657556, 'learning_rate': 'invscaling', 'momentum': 0.045677082037155925, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.16897605441274532}</t>
+          <t>{'beta_1': 0.45136986098708987, 'beta_2': 0.07079890840602415, 'epsilon': 0.29250123740907835, 'learning_rate': 'adaptive', 'momentum': 0.4475158707610247, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.37832614484517124}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.9437229437229437</v>
       </c>
     </row>
     <row r="8">
@@ -720,11 +720,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.61323399556084, 'beta_2': 0.7156937147358908, 'epsilon': 0.2872158695089587, 'learning_rate': 'adaptive', 'momentum': 0.23454990206703086, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.19026050892333246}</t>
+          <t>{'beta_1': 0.12047989084193983, 'beta_2': 0.7807391346152746, 'epsilon': 0.3514346937944752, 'learning_rate': 'invscaling', 'momentum': 0.5760767658404541, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9702129436362472}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.8961038961038961</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="9">
@@ -756,11 +756,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4681107689374008, 'beta_2': 0.21364682348509959, 'epsilon': 0.8885808137686589, 'learning_rate': 'adaptive', 'momentum': 0.8560349969338062, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2018381334111935}</t>
+          <t>{'beta_1': 0.12789284958036584, 'beta_2': 0.5826096381595377, 'epsilon': 0.002062570938847292, 'learning_rate': 'invscaling', 'momentum': 0.4124335494348642, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8937727558492876}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.8831168831168831</v>
+        <v>0.8614718614718615</v>
       </c>
     </row>
     <row r="10">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.19386403055813542, 'beta_2': 0.9918938015730331, 'epsilon': 0.4995213809388588, 'learning_rate': 'constant', 'momentum': 0.6586040703899139, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.35909708773029625}</t>
+          <t>{'beta_1': 0.2666788560326197, 'beta_2': 0.8961604243905432, 'epsilon': 0.5640625827825456, 'learning_rate': 'constant', 'momentum': 0.9829901099578396, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3305963007592103}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.9307359307359307</v>
+        <v>0.9004329004329005</v>
       </c>
     </row>
     <row r="11">
@@ -828,11 +828,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.3912753413598011, 'beta_2': 0.9564371379722508, 'epsilon': 0.47734815263293473, 'learning_rate': 'invscaling', 'momentum': 0.9459202389602205, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8143851000802041}</t>
+          <t>{'beta_1': 0.716468055057808, 'beta_2': 0.35378522575703863, 'epsilon': 0.5454678757630207, 'learning_rate': 'constant', 'momentum': 0.12709534772259246, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6713966767634144}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.8831168831168831</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="12">
@@ -864,11 +864,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6063821830010174, 'beta_2': 0.14425342131756033, 'epsilon': 0.6955945558930755, 'learning_rate': 'adaptive', 'momentum': 0.11207188087491515, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.2847797050309543}</t>
+          <t>{'beta_1': 0.3607523232070666, 'beta_2': 0.10070371237772593, 'epsilon': 0.35944995747380615, 'learning_rate': 'constant', 'momentum': 0.2937987394525844, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.11552222031708181}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.8528138528138528</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="13">
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5496658014582771, 'beta_2': 0.35345242454898307, 'epsilon': 0.9850725912238489, 'learning_rate': 'constant', 'momentum': 0.7646330109588501, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.15851485058039905}</t>
+          <t>{'beta_1': 0.6063821830010174, 'beta_2': 0.14425342131756033, 'epsilon': 0.6955945558930755, 'learning_rate': 'adaptive', 'momentum': 0.11207188087491515, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.2847797050309543}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8874458874458875</v>
+        <v>0.935064935064935</v>
       </c>
     </row>
     <row r="14">
@@ -936,7 +936,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.44159360209219534, 'beta_2': 0.5194324221962674, 'epsilon': 0.693262454523613, 'learning_rate': 'invscaling', 'momentum': 0.46100682934939485, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5391182349867721}</t>
+          <t>{'beta_1': 0.880286526374104, 'beta_2': 0.8956147508012579, 'epsilon': 0.36698304972104845, 'learning_rate': 'invscaling', 'momentum': 0.7721249928010511, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.10018511110802708}</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -972,11 +972,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8486357637336316, 'beta_2': 0.5962052156871164, 'epsilon': 0.6748570656712874, 'learning_rate': 'adaptive', 'momentum': 0.8178071324672784, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9357703614435252}</t>
+          <t>{'beta_1': 0.7907242244267251, 'beta_2': 0.12912836178219447, 'epsilon': 0.5021829041693544, 'learning_rate': 'constant', 'momentum': 0.2256774524328019, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.02510953817714312}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.8961038961038961</v>
+        <v>0.9393939393939394</v>
       </c>
     </row>
     <row r="16">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7770054833501733, 'beta_2': 0.07101681272948948, 'epsilon': 0.3420641590354221, 'learning_rate': 'adaptive', 'momentum': 0.12503687251526652, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8965321885275243}</t>
+          <t>{'beta_1': 0.7746514249422546, 'beta_2': 0.7964955714083342, 'epsilon': 0.7807090265923036, 'learning_rate': 'invscaling', 'momentum': 0.72685102950692, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.03669141786941299}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.9134199134199135</v>
+        <v>0.935064935064935</v>
       </c>
     </row>
     <row r="17">
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.3589121456430256, 'beta_2': 0.3990994114057741, 'epsilon': 0.30152904505158906, 'learning_rate': 'constant', 'momentum': 0.23223414217094274, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9528706723868426}</t>
+          <t>{'beta_1': 0.8023409362111764, 'beta_2': 0.03714396089515617, 'epsilon': 0.7705495326661607, 'learning_rate': 'adaptive', 'momentum': 0.1648055898475378, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.13643236902046962}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.9264069264069265</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="18">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.034075793806106, 'beta_2': 0.6638365496169778, 'epsilon': 0.8668194881681545, 'learning_rate': 'constant', 'momentum': 0.8757651744100993, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.08029435501699689}</t>
+          <t>{'beta_1': 0.28460063503317745, 'beta_2': 0.10388408946587702, 'epsilon': 0.9069905590531175, 'learning_rate': 'invscaling', 'momentum': 0.7300025047009917, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5533152433905455}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.9437229437229437</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="19">
@@ -1116,11 +1116,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.61323399556084, 'beta_2': 0.7156937147358908, 'epsilon': 0.2872158695089587, 'learning_rate': 'adaptive', 'momentum': 0.23454990206703086, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.19026050892333246}</t>
+          <t>{'beta_1': 0.49187317517272433, 'beta_2': 0.5161988937122239, 'epsilon': 0.11464785408912949, 'learning_rate': 'constant', 'momentum': 0.11293144772785457, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.1641548253660814}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.8744588744588745</v>
+        <v>0.948051948051948</v>
       </c>
     </row>
     <row r="20">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5271870108472929, 'beta_2': 0.23728561484836336, 'epsilon': 0.27103479515720774, 'learning_rate': 'invscaling', 'momentum': 0.5323203282585608, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5171213804274264}</t>
+          <t>{'beta_1': 0.229046817885475, 'beta_2': 0.6847295177750642, 'epsilon': 0.525886126729427, 'learning_rate': 'adaptive', 'momentum': 0.8322388610488994, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9048267078810679}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.8528138528138528</v>
       </c>
     </row>
     <row r="21">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.824955554146974, 'beta_2': 0.29643507613087744, 'epsilon': 0.14667350486551128, 'learning_rate': 'invscaling', 'momentum': 0.3648573130917908, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9598271493776032}</t>
+          <t>{'beta_1': 0.229046817885475, 'beta_2': 0.6847295177750642, 'epsilon': 0.525886126729427, 'learning_rate': 'adaptive', 'momentum': 0.8322388610488994, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9048267078810679}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.9004329004329005</v>
       </c>
     </row>
   </sheetData>
